--- a/chamber4/analysis_page_rate.xlsx
+++ b/chamber4/analysis_page_rate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="17860" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1572,6 +1572,212 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>run6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG$36:$AG$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>92.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>136.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>247.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1580,11 +1786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1831152256"/>
-        <c:axId val="1831149936"/>
+        <c:axId val="1661932416"/>
+        <c:axId val="1661936512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1831152256"/>
+        <c:axId val="1661932416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.4"/>
@@ -1683,12 +1889,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1831149936"/>
+        <c:crossAx val="1661936512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1831149936"/>
+        <c:axId val="1661936512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1801,7 +2007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1831152256"/>
+        <c:crossAx val="1661932416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2772,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HM182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF32" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="AX39" sqref="AX39"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4087,6 +4293,51 @@
       <c r="DQ4">
         <v>0</v>
       </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0.8</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0.1</v>
+      </c>
+      <c r="DX4">
+        <v>19</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4">
+        <v>0</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -4367,6 +4618,51 @@
       <c r="DQ5">
         <v>0</v>
       </c>
+      <c r="DS5">
+        <v>0.1</v>
+      </c>
+      <c r="DT5">
+        <v>16.5</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DW5">
+        <v>0.2</v>
+      </c>
+      <c r="DX5">
+        <v>22.2</v>
+      </c>
+      <c r="DY5">
+        <v>0</v>
+      </c>
+      <c r="EA5">
+        <v>0</v>
+      </c>
+      <c r="EB5">
+        <v>14.7</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0.1</v>
+      </c>
+      <c r="EF5">
+        <v>0.4</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5">
+        <v>0.6</v>
+      </c>
+      <c r="EK5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -4647,6 +4943,51 @@
       <c r="DQ6">
         <v>0</v>
       </c>
+      <c r="DS6">
+        <v>0.1</v>
+      </c>
+      <c r="DT6">
+        <v>25.8</v>
+      </c>
+      <c r="DU6">
+        <v>0.1</v>
+      </c>
+      <c r="DW6">
+        <v>0.1</v>
+      </c>
+      <c r="DX6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="DY6">
+        <v>0.1</v>
+      </c>
+      <c r="EA6">
+        <v>0.1</v>
+      </c>
+      <c r="EB6">
+        <v>14.5</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>0.2</v>
+      </c>
+      <c r="EF6">
+        <v>0.6</v>
+      </c>
+      <c r="EG6">
+        <v>0.1</v>
+      </c>
+      <c r="EI6">
+        <v>0.3</v>
+      </c>
+      <c r="EJ6">
+        <v>0.7</v>
+      </c>
+      <c r="EK6">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -4927,6 +5268,51 @@
       <c r="DQ7">
         <v>0</v>
       </c>
+      <c r="DS7">
+        <v>0.1</v>
+      </c>
+      <c r="DT7">
+        <v>11.4</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0.2</v>
+      </c>
+      <c r="DX7">
+        <v>26.1</v>
+      </c>
+      <c r="DY7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0.3</v>
+      </c>
+      <c r="EB7">
+        <v>11.8</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0.2</v>
+      </c>
+      <c r="EF7">
+        <v>0.9</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>0.4</v>
+      </c>
+      <c r="EJ7">
+        <v>0.9</v>
+      </c>
+      <c r="EK7">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -5207,6 +5593,51 @@
       <c r="DQ8">
         <v>0.6</v>
       </c>
+      <c r="DS8">
+        <v>0.4</v>
+      </c>
+      <c r="DT8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="DU8">
+        <v>0.1</v>
+      </c>
+      <c r="DW8">
+        <v>1.6</v>
+      </c>
+      <c r="DX8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="DY8">
+        <v>0.4</v>
+      </c>
+      <c r="EA8">
+        <v>0.8</v>
+      </c>
+      <c r="EB8">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="EC8">
+        <v>0.5</v>
+      </c>
+      <c r="EE8">
+        <v>1</v>
+      </c>
+      <c r="EF8">
+        <v>1.6</v>
+      </c>
+      <c r="EG8">
+        <v>0.5</v>
+      </c>
+      <c r="EI8">
+        <v>1.8</v>
+      </c>
+      <c r="EJ8">
+        <v>2.6</v>
+      </c>
+      <c r="EK8">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -5487,6 +5918,51 @@
       <c r="DQ9">
         <v>4.0999999999999996</v>
       </c>
+      <c r="DS9">
+        <v>1.3</v>
+      </c>
+      <c r="DT9">
+        <v>7.2</v>
+      </c>
+      <c r="DU9">
+        <v>1</v>
+      </c>
+      <c r="DW9">
+        <v>4</v>
+      </c>
+      <c r="DX9">
+        <v>28.5</v>
+      </c>
+      <c r="DY9">
+        <v>2.9</v>
+      </c>
+      <c r="EA9">
+        <v>4.7</v>
+      </c>
+      <c r="EB9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="EC9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="EE9">
+        <v>7.1</v>
+      </c>
+      <c r="EF9">
+        <v>10.1</v>
+      </c>
+      <c r="EG9">
+        <v>5.2</v>
+      </c>
+      <c r="EI9">
+        <v>6.7</v>
+      </c>
+      <c r="EJ9">
+        <v>6.6</v>
+      </c>
+      <c r="EK9">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -5767,6 +6243,51 @@
       <c r="DQ10">
         <v>12.1</v>
       </c>
+      <c r="DS10">
+        <v>1.7</v>
+      </c>
+      <c r="DT10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="DU10">
+        <v>0.8</v>
+      </c>
+      <c r="DW10">
+        <v>10.5</v>
+      </c>
+      <c r="DX10">
+        <v>23.2</v>
+      </c>
+      <c r="DY10">
+        <v>7.6</v>
+      </c>
+      <c r="EA10">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="EB10">
+        <v>21.8</v>
+      </c>
+      <c r="EC10">
+        <v>6.7</v>
+      </c>
+      <c r="EE10">
+        <v>14.2</v>
+      </c>
+      <c r="EF10">
+        <v>23.9</v>
+      </c>
+      <c r="EG10">
+        <v>11.6</v>
+      </c>
+      <c r="EI10">
+        <v>11.8</v>
+      </c>
+      <c r="EJ10">
+        <v>12.2</v>
+      </c>
+      <c r="EK10">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="11" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -6047,6 +6568,51 @@
       <c r="DQ11">
         <v>26.2</v>
       </c>
+      <c r="DS11">
+        <v>3</v>
+      </c>
+      <c r="DT11">
+        <v>22.9</v>
+      </c>
+      <c r="DU11">
+        <v>1.9</v>
+      </c>
+      <c r="DW11">
+        <v>32.1</v>
+      </c>
+      <c r="DX11">
+        <v>41.2</v>
+      </c>
+      <c r="DY11">
+        <v>22.9</v>
+      </c>
+      <c r="EA11">
+        <v>28.9</v>
+      </c>
+      <c r="EB11">
+        <v>34.9</v>
+      </c>
+      <c r="EC11">
+        <v>19.7</v>
+      </c>
+      <c r="EE11">
+        <v>32.5</v>
+      </c>
+      <c r="EF11">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="EG11">
+        <v>26.6</v>
+      </c>
+      <c r="EI11">
+        <v>30.4</v>
+      </c>
+      <c r="EJ11">
+        <v>26.1</v>
+      </c>
+      <c r="EK11">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="12" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -6327,6 +6893,51 @@
       <c r="DQ12">
         <v>45.2</v>
       </c>
+      <c r="DS12">
+        <v>3.2</v>
+      </c>
+      <c r="DT12">
+        <v>15.4</v>
+      </c>
+      <c r="DU12">
+        <v>2.4</v>
+      </c>
+      <c r="DW12">
+        <v>46.1</v>
+      </c>
+      <c r="DX12">
+        <v>50.4</v>
+      </c>
+      <c r="DY12">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="EA12">
+        <v>45</v>
+      </c>
+      <c r="EB12">
+        <v>59.5</v>
+      </c>
+      <c r="EC12">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="EE12">
+        <v>51.5</v>
+      </c>
+      <c r="EF12">
+        <v>53</v>
+      </c>
+      <c r="EG12">
+        <v>45.4</v>
+      </c>
+      <c r="EI12">
+        <v>40.9</v>
+      </c>
+      <c r="EJ12">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="EK12">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="13" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -6607,6 +7218,51 @@
       <c r="DQ13">
         <v>59.4</v>
       </c>
+      <c r="DS13">
+        <v>3.9</v>
+      </c>
+      <c r="DT13">
+        <v>13</v>
+      </c>
+      <c r="DU13">
+        <v>2.6</v>
+      </c>
+      <c r="DW13">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="DX13">
+        <v>72.2</v>
+      </c>
+      <c r="DY13">
+        <v>55.6</v>
+      </c>
+      <c r="EA13">
+        <v>69.3</v>
+      </c>
+      <c r="EB13">
+        <v>73.8</v>
+      </c>
+      <c r="EC13">
+        <v>56.4</v>
+      </c>
+      <c r="EE13">
+        <v>67</v>
+      </c>
+      <c r="EF13">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="EG13">
+        <v>56.9</v>
+      </c>
+      <c r="EI13">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="EJ13">
+        <v>56</v>
+      </c>
+      <c r="EK13">
+        <v>50.6</v>
+      </c>
     </row>
     <row r="14" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -6887,6 +7543,51 @@
       <c r="DQ14">
         <v>105.3</v>
       </c>
+      <c r="DS14">
+        <v>7.6</v>
+      </c>
+      <c r="DT14">
+        <v>22.9</v>
+      </c>
+      <c r="DU14">
+        <v>5</v>
+      </c>
+      <c r="DW14">
+        <v>112</v>
+      </c>
+      <c r="DX14">
+        <v>102.2</v>
+      </c>
+      <c r="DY14">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="EA14">
+        <v>112.2</v>
+      </c>
+      <c r="EB14">
+        <v>108.8</v>
+      </c>
+      <c r="EC14">
+        <v>88.4</v>
+      </c>
+      <c r="EE14">
+        <v>119.2</v>
+      </c>
+      <c r="EF14">
+        <v>111.2</v>
+      </c>
+      <c r="EG14">
+        <v>94.8</v>
+      </c>
+      <c r="EI14">
+        <v>120</v>
+      </c>
+      <c r="EJ14">
+        <v>90.5</v>
+      </c>
+      <c r="EK14">
+        <v>80.900000000000006</v>
+      </c>
     </row>
     <row r="15" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -7167,6 +7868,51 @@
       <c r="DQ15">
         <v>140.5</v>
       </c>
+      <c r="DS15">
+        <v>9.6</v>
+      </c>
+      <c r="DT15">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="DU15">
+        <v>6.6</v>
+      </c>
+      <c r="DW15">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="DX15">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="DY15">
+        <v>130</v>
+      </c>
+      <c r="EA15">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="EB15">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="EC15">
+        <v>128.1</v>
+      </c>
+      <c r="EE15">
+        <v>154.9</v>
+      </c>
+      <c r="EF15">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="EG15">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="EI15">
+        <v>152.1</v>
+      </c>
+      <c r="EJ15">
+        <v>127.5</v>
+      </c>
+      <c r="EK15">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="16" spans="1:221" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -7447,8 +8193,53 @@
       <c r="DQ16">
         <v>173.5</v>
       </c>
+      <c r="DS16">
+        <v>9.1</v>
+      </c>
+      <c r="DT16">
+        <v>17.5</v>
+      </c>
+      <c r="DU16">
+        <v>5.8</v>
+      </c>
+      <c r="DW16">
+        <v>179.9</v>
+      </c>
+      <c r="DX16">
+        <v>175.8</v>
+      </c>
+      <c r="DY16">
+        <v>165.7</v>
+      </c>
+      <c r="EA16">
+        <v>168</v>
+      </c>
+      <c r="EB16">
+        <v>173.2</v>
+      </c>
+      <c r="EC16">
+        <v>155</v>
+      </c>
+      <c r="EE16">
+        <v>172.7</v>
+      </c>
+      <c r="EF16">
+        <v>169.5</v>
+      </c>
+      <c r="EG16">
+        <v>164.1</v>
+      </c>
+      <c r="EI16">
+        <v>172.4</v>
+      </c>
+      <c r="EJ16">
+        <v>155</v>
+      </c>
+      <c r="EK16">
+        <v>150.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3.2</v>
       </c>
@@ -7727,8 +8518,53 @@
       <c r="DQ17">
         <v>179.2</v>
       </c>
+      <c r="DS17">
+        <v>12.7</v>
+      </c>
+      <c r="DT17">
+        <v>24.6</v>
+      </c>
+      <c r="DU17">
+        <v>8.6</v>
+      </c>
+      <c r="DW17">
+        <v>183.4</v>
+      </c>
+      <c r="DX17">
+        <v>185</v>
+      </c>
+      <c r="DY17">
+        <v>174</v>
+      </c>
+      <c r="EA17">
+        <v>178.5</v>
+      </c>
+      <c r="EB17">
+        <v>186.3</v>
+      </c>
+      <c r="EC17">
+        <v>169.9</v>
+      </c>
+      <c r="EE17">
+        <v>186.8</v>
+      </c>
+      <c r="EF17">
+        <v>184.7</v>
+      </c>
+      <c r="EG17">
+        <v>179.7</v>
+      </c>
+      <c r="EI17">
+        <v>180.2</v>
+      </c>
+      <c r="EJ17">
+        <v>168.2</v>
+      </c>
+      <c r="EK17">
+        <v>163.69999999999999</v>
+      </c>
     </row>
-    <row r="18" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3.25</v>
       </c>
@@ -8007,8 +8843,53 @@
       <c r="DQ18">
         <v>183.4</v>
       </c>
+      <c r="DS18">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="DT18">
+        <v>25.8</v>
+      </c>
+      <c r="DU18">
+        <v>11.2</v>
+      </c>
+      <c r="DW18">
+        <v>192.3</v>
+      </c>
+      <c r="DX18">
+        <v>197.6</v>
+      </c>
+      <c r="DY18">
+        <v>185.5</v>
+      </c>
+      <c r="EA18">
+        <v>187.8</v>
+      </c>
+      <c r="EB18">
+        <v>203.2</v>
+      </c>
+      <c r="EC18">
+        <v>181</v>
+      </c>
+      <c r="EE18">
+        <v>188.3</v>
+      </c>
+      <c r="EF18">
+        <v>187.4</v>
+      </c>
+      <c r="EG18">
+        <v>181.4</v>
+      </c>
+      <c r="EI18">
+        <v>184.9</v>
+      </c>
+      <c r="EJ18">
+        <v>179.4</v>
+      </c>
+      <c r="EK18">
+        <v>172.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3.3</v>
       </c>
@@ -8287,8 +9168,53 @@
       <c r="DQ19">
         <v>199.7</v>
       </c>
+      <c r="DS19">
+        <v>22.5</v>
+      </c>
+      <c r="DT19">
+        <v>39.9</v>
+      </c>
+      <c r="DU19">
+        <v>15.7</v>
+      </c>
+      <c r="DW19">
+        <v>209.6</v>
+      </c>
+      <c r="DX19">
+        <v>222.3</v>
+      </c>
+      <c r="DY19">
+        <v>204.1</v>
+      </c>
+      <c r="EA19">
+        <v>189.4</v>
+      </c>
+      <c r="EB19">
+        <v>205.3</v>
+      </c>
+      <c r="EC19">
+        <v>182.4</v>
+      </c>
+      <c r="EE19">
+        <v>196.2</v>
+      </c>
+      <c r="EF19">
+        <v>197.7</v>
+      </c>
+      <c r="EG19">
+        <v>189.8</v>
+      </c>
+      <c r="EI19">
+        <v>190.6</v>
+      </c>
+      <c r="EJ19">
+        <v>186.8</v>
+      </c>
+      <c r="EK19">
+        <v>179.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3.35</v>
       </c>
@@ -8567,8 +9493,53 @@
       <c r="DQ20">
         <v>202.9</v>
       </c>
+      <c r="DS20">
+        <v>22.7</v>
+      </c>
+      <c r="DT20">
+        <v>43.1</v>
+      </c>
+      <c r="DU20">
+        <v>17.7</v>
+      </c>
+      <c r="DW20">
+        <v>209.6</v>
+      </c>
+      <c r="DX20">
+        <v>216.2</v>
+      </c>
+      <c r="DY20">
+        <v>203</v>
+      </c>
+      <c r="EA20">
+        <v>192.9</v>
+      </c>
+      <c r="EB20">
+        <v>201.2</v>
+      </c>
+      <c r="EC20">
+        <v>185.1</v>
+      </c>
+      <c r="EE20">
+        <v>200.3</v>
+      </c>
+      <c r="EF20">
+        <v>199.7</v>
+      </c>
+      <c r="EG20">
+        <v>192.5</v>
+      </c>
+      <c r="EI20">
+        <v>199.9</v>
+      </c>
+      <c r="EJ20">
+        <v>195.1</v>
+      </c>
+      <c r="EK20">
+        <v>185</v>
+      </c>
     </row>
-    <row r="21" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3.4</v>
       </c>
@@ -8847,8 +9818,53 @@
       <c r="DQ21">
         <v>219.1</v>
       </c>
+      <c r="DS21">
+        <v>32.9</v>
+      </c>
+      <c r="DT21">
+        <v>46.3</v>
+      </c>
+      <c r="DU21">
+        <v>23.1</v>
+      </c>
+      <c r="DW21">
+        <v>205.6</v>
+      </c>
+      <c r="DX21">
+        <v>212.3</v>
+      </c>
+      <c r="DY21">
+        <v>196.3</v>
+      </c>
+      <c r="EA21">
+        <v>210.7</v>
+      </c>
+      <c r="EB21">
+        <v>220</v>
+      </c>
+      <c r="EC21">
+        <v>198.7</v>
+      </c>
+      <c r="EE21">
+        <v>214.4</v>
+      </c>
+      <c r="EF21">
+        <v>214.3</v>
+      </c>
+      <c r="EG21">
+        <v>204.2</v>
+      </c>
+      <c r="EI21">
+        <v>205</v>
+      </c>
+      <c r="EJ21">
+        <v>203.1</v>
+      </c>
+      <c r="EK21">
+        <v>190.8</v>
+      </c>
     </row>
-    <row r="22" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3.45</v>
       </c>
@@ -9127,8 +10143,53 @@
       <c r="DQ22">
         <v>238.9</v>
       </c>
+      <c r="DS22">
+        <v>43</v>
+      </c>
+      <c r="DT22">
+        <v>52.5</v>
+      </c>
+      <c r="DU22">
+        <v>26.7</v>
+      </c>
+      <c r="DW22">
+        <v>218.2</v>
+      </c>
+      <c r="DX22">
+        <v>232</v>
+      </c>
+      <c r="DY22">
+        <v>208.2</v>
+      </c>
+      <c r="EA22">
+        <v>223.3</v>
+      </c>
+      <c r="EB22">
+        <v>224.7</v>
+      </c>
+      <c r="EC22">
+        <v>208.1</v>
+      </c>
+      <c r="EE22">
+        <v>219.3</v>
+      </c>
+      <c r="EF22">
+        <v>214.4</v>
+      </c>
+      <c r="EG22">
+        <v>202.6</v>
+      </c>
+      <c r="EI22">
+        <v>224</v>
+      </c>
+      <c r="EJ22">
+        <v>213.5</v>
+      </c>
+      <c r="EK22">
+        <v>202.6</v>
+      </c>
     </row>
-    <row r="23" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>3.5</v>
       </c>
@@ -9407,8 +10468,53 @@
       <c r="DQ23">
         <v>268</v>
       </c>
+      <c r="DS23">
+        <v>61.5</v>
+      </c>
+      <c r="DT23">
+        <v>63.3</v>
+      </c>
+      <c r="DU23">
+        <v>34.6</v>
+      </c>
+      <c r="DW23">
+        <v>233</v>
+      </c>
+      <c r="DX23">
+        <v>237.5</v>
+      </c>
+      <c r="DY23">
+        <v>216.9</v>
+      </c>
+      <c r="EA23">
+        <v>235.2</v>
+      </c>
+      <c r="EB23">
+        <v>234</v>
+      </c>
+      <c r="EC23">
+        <v>215</v>
+      </c>
+      <c r="EE23">
+        <v>243.3</v>
+      </c>
+      <c r="EF23">
+        <v>232.1</v>
+      </c>
+      <c r="EG23">
+        <v>218.7</v>
+      </c>
+      <c r="EI23">
+        <v>236.6</v>
+      </c>
+      <c r="EJ23">
+        <v>221.3</v>
+      </c>
+      <c r="EK23">
+        <v>207.8</v>
+      </c>
     </row>
-    <row r="24" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>3.55</v>
       </c>
@@ -9687,8 +10793,53 @@
       <c r="DQ24">
         <v>342.8</v>
       </c>
+      <c r="DS24">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="DT24">
+        <v>74.7</v>
+      </c>
+      <c r="DU24">
+        <v>45.6</v>
+      </c>
+      <c r="DW24">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="DX24">
+        <v>254.7</v>
+      </c>
+      <c r="DY24">
+        <v>235.3</v>
+      </c>
+      <c r="EA24">
+        <v>255.9</v>
+      </c>
+      <c r="EB24">
+        <v>253.5</v>
+      </c>
+      <c r="EC24">
+        <v>222.7</v>
+      </c>
+      <c r="EE24">
+        <v>283</v>
+      </c>
+      <c r="EF24">
+        <v>254.4</v>
+      </c>
+      <c r="EG24">
+        <v>239.9</v>
+      </c>
+      <c r="EI24">
+        <v>326.5</v>
+      </c>
+      <c r="EJ24">
+        <v>263.2</v>
+      </c>
+      <c r="EK24">
+        <v>248.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>3.6</v>
       </c>
@@ -9967,8 +11118,53 @@
       <c r="DQ25">
         <v>453</v>
       </c>
+      <c r="DS25">
+        <v>113.2</v>
+      </c>
+      <c r="DT25">
+        <v>97.9</v>
+      </c>
+      <c r="DU25">
+        <v>65</v>
+      </c>
+      <c r="DW25">
+        <v>292.3</v>
+      </c>
+      <c r="DX25">
+        <v>271.8</v>
+      </c>
+      <c r="DY25">
+        <v>253.8</v>
+      </c>
+      <c r="EA25">
+        <v>293</v>
+      </c>
+      <c r="EB25">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="EC25">
+        <v>251.9</v>
+      </c>
+      <c r="EE25">
+        <v>328.9</v>
+      </c>
+      <c r="EF25">
+        <v>283</v>
+      </c>
+      <c r="EG25">
+        <v>264.8</v>
+      </c>
+      <c r="EI25">
+        <v>368.7</v>
+      </c>
+      <c r="EJ25">
+        <v>300.3</v>
+      </c>
+      <c r="EK25">
+        <v>282.2</v>
+      </c>
     </row>
-    <row r="26" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3.65</v>
       </c>
@@ -10247,8 +11443,53 @@
       <c r="DQ26">
         <v>502.4</v>
       </c>
+      <c r="DS26">
+        <v>162.6</v>
+      </c>
+      <c r="DT26">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="DU26">
+        <v>92.9</v>
+      </c>
+      <c r="DW26">
+        <v>330.5</v>
+      </c>
+      <c r="DX26">
+        <v>299.2</v>
+      </c>
+      <c r="DY26">
+        <v>271.60000000000002</v>
+      </c>
+      <c r="EA26">
+        <v>337.6</v>
+      </c>
+      <c r="EB26">
+        <v>301.8</v>
+      </c>
+      <c r="EC26">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="EE26">
+        <v>393.6</v>
+      </c>
+      <c r="EF26">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="EG26">
+        <v>298.7</v>
+      </c>
+      <c r="EI26">
+        <v>401.2</v>
+      </c>
+      <c r="EJ26">
+        <v>327.2</v>
+      </c>
+      <c r="EK26">
+        <v>306.10000000000002</v>
+      </c>
     </row>
-    <row r="27" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3.7</v>
       </c>
@@ -10527,8 +11768,53 @@
       <c r="DQ27">
         <v>630.1</v>
       </c>
+      <c r="DS27">
+        <v>237.9</v>
+      </c>
+      <c r="DT27">
+        <v>172.8</v>
+      </c>
+      <c r="DU27">
+        <v>136.4</v>
+      </c>
+      <c r="DW27">
+        <v>400.3</v>
+      </c>
+      <c r="DX27">
+        <v>354.3</v>
+      </c>
+      <c r="DY27">
+        <v>317.60000000000002</v>
+      </c>
+      <c r="EA27">
+        <v>408.2</v>
+      </c>
+      <c r="EB27">
+        <v>338.4</v>
+      </c>
+      <c r="EC27">
+        <v>307.8</v>
+      </c>
+      <c r="EE27">
+        <v>452.5</v>
+      </c>
+      <c r="EF27">
+        <v>365.6</v>
+      </c>
+      <c r="EG27">
+        <v>336.4</v>
+      </c>
+      <c r="EI27">
+        <v>506.5</v>
+      </c>
+      <c r="EJ27">
+        <v>380.1</v>
+      </c>
+      <c r="EK27">
+        <v>352.4</v>
+      </c>
     </row>
-    <row r="28" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3.75</v>
       </c>
@@ -10807,8 +12093,53 @@
       <c r="DQ28">
         <v>786.9</v>
       </c>
+      <c r="DS28">
+        <v>320.7</v>
+      </c>
+      <c r="DT28">
+        <v>265.8</v>
+      </c>
+      <c r="DU28">
+        <v>191.5</v>
+      </c>
+      <c r="DW28">
+        <v>480.7</v>
+      </c>
+      <c r="DX28">
+        <v>415.1</v>
+      </c>
+      <c r="DY28">
+        <v>367.3</v>
+      </c>
+      <c r="EA28">
+        <v>499.6</v>
+      </c>
+      <c r="EB28">
+        <v>400.6</v>
+      </c>
+      <c r="EC28">
+        <v>357.1</v>
+      </c>
+      <c r="EE28">
+        <v>640.70000000000005</v>
+      </c>
+      <c r="EF28">
+        <v>491.3</v>
+      </c>
+      <c r="EG28">
+        <v>452.6</v>
+      </c>
+      <c r="EI28">
+        <v>579.6</v>
+      </c>
+      <c r="EJ28">
+        <v>450</v>
+      </c>
+      <c r="EK28">
+        <v>415.4</v>
+      </c>
     </row>
-    <row r="29" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:141" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3.8</v>
       </c>
@@ -11086,6 +12417,51 @@
       </c>
       <c r="DQ29">
         <v>898.1</v>
+      </c>
+      <c r="DS29">
+        <v>410.8</v>
+      </c>
+      <c r="DT29">
+        <v>294.8</v>
+      </c>
+      <c r="DU29">
+        <v>247.5</v>
+      </c>
+      <c r="DW29">
+        <v>583.5</v>
+      </c>
+      <c r="DX29">
+        <v>476.9</v>
+      </c>
+      <c r="DY29">
+        <v>419</v>
+      </c>
+      <c r="EA29">
+        <v>626.1</v>
+      </c>
+      <c r="EB29">
+        <v>518.20000000000005</v>
+      </c>
+      <c r="EC29">
+        <v>450.2</v>
+      </c>
+      <c r="EE29">
+        <v>680.7</v>
+      </c>
+      <c r="EF29">
+        <v>547.6</v>
+      </c>
+      <c r="EG29">
+        <v>479.5</v>
+      </c>
+      <c r="EI29">
+        <v>670.6</v>
+      </c>
+      <c r="EJ29">
+        <v>531.9</v>
+      </c>
+      <c r="EK29">
+        <v>476.5</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.2">
@@ -11280,7 +12656,7 @@
       </c>
       <c r="U35" s="1">
         <f>DT4</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V35" s="1">
         <f>EN4</f>
@@ -11373,7 +12749,7 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" ref="I36:I60" si="6">DS5</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" ref="J36:J60" si="7">EM5</f>
@@ -11417,7 +12793,7 @@
       </c>
       <c r="U36" s="1">
         <f t="shared" ref="U36:U60" si="17">DT5</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="V36" s="1">
         <f t="shared" ref="V36:V60" si="18">EN5</f>
@@ -11510,7 +12886,7 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="7"/>
@@ -11554,7 +12930,7 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="V37" s="1">
         <f t="shared" si="18"/>
@@ -11598,7 +12974,7 @@
       </c>
       <c r="AG37">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AH37">
         <f t="shared" si="29"/>
@@ -11647,7 +13023,7 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="7"/>
@@ -11691,7 +13067,7 @@
       </c>
       <c r="U38" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="V38" s="1">
         <f t="shared" si="18"/>
@@ -11784,7 +13160,7 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="7"/>
@@ -11828,7 +13204,7 @@
       </c>
       <c r="U39" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="V39" s="1">
         <f t="shared" si="18"/>
@@ -11872,7 +13248,7 @@
       </c>
       <c r="AG39">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AH39">
         <f t="shared" si="29"/>
@@ -11921,7 +13297,7 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="7"/>
@@ -11965,7 +13341,7 @@
       </c>
       <c r="U40" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="V40" s="1">
         <f t="shared" si="18"/>
@@ -12009,7 +13385,7 @@
       </c>
       <c r="AG40">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH40">
         <f t="shared" si="29"/>
@@ -12058,7 +13434,7 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="7"/>
@@ -12102,7 +13478,7 @@
       </c>
       <c r="U41" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="V41" s="1">
         <f t="shared" si="18"/>
@@ -12146,7 +13522,7 @@
       </c>
       <c r="AG41">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH41">
         <f t="shared" si="29"/>
@@ -12195,7 +13571,7 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="7"/>
@@ -12239,7 +13615,7 @@
       </c>
       <c r="U42" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="V42" s="1">
         <f t="shared" si="18"/>
@@ -12283,7 +13659,7 @@
       </c>
       <c r="AG42">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH42">
         <f t="shared" si="29"/>
@@ -12332,7 +13708,7 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="7"/>
@@ -12376,7 +13752,7 @@
       </c>
       <c r="U43" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="18"/>
@@ -12420,7 +13796,7 @@
       </c>
       <c r="AG43">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH43">
         <f t="shared" si="29"/>
@@ -12469,7 +13845,7 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="7"/>
@@ -12513,7 +13889,7 @@
       </c>
       <c r="U44" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V44" s="1">
         <f t="shared" si="18"/>
@@ -12557,7 +13933,7 @@
       </c>
       <c r="AG44">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH44">
         <f t="shared" si="29"/>
@@ -12606,7 +13982,7 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="7"/>
@@ -12650,7 +14026,7 @@
       </c>
       <c r="U45" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="V45" s="1">
         <f t="shared" si="18"/>
@@ -12694,7 +14070,7 @@
       </c>
       <c r="AG45">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH45">
         <f t="shared" si="29"/>
@@ -12743,7 +14119,7 @@
       </c>
       <c r="I46" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="7"/>
@@ -12787,7 +14163,7 @@
       </c>
       <c r="U46" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="V46" s="1">
         <f t="shared" si="18"/>
@@ -12831,7 +14207,7 @@
       </c>
       <c r="AG46">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AH46">
         <f t="shared" si="29"/>
@@ -12880,7 +14256,7 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="7"/>
@@ -12924,7 +14300,7 @@
       </c>
       <c r="U47" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="V47" s="1">
         <f t="shared" si="18"/>
@@ -12968,7 +14344,7 @@
       </c>
       <c r="AG47">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AH47">
         <f t="shared" si="29"/>
@@ -13017,7 +14393,7 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.7</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="7"/>
@@ -13061,7 +14437,7 @@
       </c>
       <c r="U48" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>24.6</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" si="18"/>
@@ -13105,7 +14481,7 @@
       </c>
       <c r="AG48">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AH48">
         <f t="shared" si="29"/>
@@ -13154,7 +14530,7 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="7"/>
@@ -13198,7 +14574,7 @@
       </c>
       <c r="U49" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="V49" s="1">
         <f t="shared" si="18"/>
@@ -13242,7 +14618,7 @@
       </c>
       <c r="AG49">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="AH49">
         <f t="shared" si="29"/>
@@ -13291,7 +14667,7 @@
       </c>
       <c r="I50" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="J50" s="1">
         <f t="shared" si="7"/>
@@ -13335,7 +14711,7 @@
       </c>
       <c r="U50" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>39.9</v>
       </c>
       <c r="V50" s="1">
         <f t="shared" si="18"/>
@@ -13379,7 +14755,7 @@
       </c>
       <c r="AG50">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="AH50">
         <f t="shared" si="29"/>
@@ -13428,7 +14804,7 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="J51" s="1">
         <f t="shared" si="7"/>
@@ -13472,7 +14848,7 @@
       </c>
       <c r="U51" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>43.1</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" si="18"/>
@@ -13516,7 +14892,7 @@
       </c>
       <c r="AG51">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="AH51">
         <f t="shared" si="29"/>
@@ -13565,7 +14941,7 @@
       </c>
       <c r="I52" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="J52" s="1">
         <f t="shared" si="7"/>
@@ -13609,7 +14985,7 @@
       </c>
       <c r="U52" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>46.3</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" si="18"/>
@@ -13653,7 +15029,7 @@
       </c>
       <c r="AG52">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="AH52">
         <f t="shared" si="29"/>
@@ -13702,7 +15078,7 @@
       </c>
       <c r="I53" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J53" s="1">
         <f t="shared" si="7"/>
@@ -13746,7 +15122,7 @@
       </c>
       <c r="U53" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="18"/>
@@ -13790,7 +15166,7 @@
       </c>
       <c r="AG53">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="AH53">
         <f t="shared" si="29"/>
@@ -13839,7 +15215,7 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="J54" s="1">
         <f t="shared" si="7"/>
@@ -13883,7 +15259,7 @@
       </c>
       <c r="U54" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>63.3</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" si="18"/>
@@ -13927,7 +15303,7 @@
       </c>
       <c r="AG54">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="AH54">
         <f t="shared" si="29"/>
@@ -13976,7 +15352,7 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="7"/>
@@ -14020,7 +15396,7 @@
       </c>
       <c r="U55" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>74.7</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="18"/>
@@ -14064,7 +15440,7 @@
       </c>
       <c r="AG55">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>45.6</v>
       </c>
       <c r="AH55">
         <f t="shared" si="29"/>
@@ -14113,7 +15489,7 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>113.2</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="7"/>
@@ -14157,7 +15533,7 @@
       </c>
       <c r="U56" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>97.9</v>
       </c>
       <c r="V56" s="1">
         <f t="shared" si="18"/>
@@ -14201,7 +15577,7 @@
       </c>
       <c r="AG56">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AH56">
         <f t="shared" si="29"/>
@@ -14250,7 +15626,7 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>162.6</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="7"/>
@@ -14294,7 +15670,7 @@
       </c>
       <c r="U57" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="V57" s="1">
         <f t="shared" si="18"/>
@@ -14338,7 +15714,7 @@
       </c>
       <c r="AG57">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>92.9</v>
       </c>
       <c r="AH57">
         <f t="shared" si="29"/>
@@ -14387,7 +15763,7 @@
       </c>
       <c r="I58" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>237.9</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="7"/>
@@ -14431,7 +15807,7 @@
       </c>
       <c r="U58" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>172.8</v>
       </c>
       <c r="V58" s="1">
         <f t="shared" si="18"/>
@@ -14475,7 +15851,7 @@
       </c>
       <c r="AG58">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>136.4</v>
       </c>
       <c r="AH58">
         <f t="shared" si="29"/>
@@ -14524,7 +15900,7 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>320.7</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="7"/>
@@ -14568,7 +15944,7 @@
       </c>
       <c r="U59" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>265.8</v>
       </c>
       <c r="V59" s="1">
         <f t="shared" si="18"/>
@@ -14612,7 +15988,7 @@
       </c>
       <c r="AG59">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>191.5</v>
       </c>
       <c r="AH59">
         <f t="shared" si="29"/>
@@ -14661,7 +16037,7 @@
       </c>
       <c r="I60" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>410.8</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="7"/>
@@ -14705,7 +16081,7 @@
       </c>
       <c r="U60" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>294.8</v>
       </c>
       <c r="V60" s="1">
         <f t="shared" si="18"/>
@@ -14749,7 +16125,7 @@
       </c>
       <c r="AG60">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>247.5</v>
       </c>
       <c r="AH60">
         <f t="shared" si="29"/>
@@ -14921,7 +16297,7 @@
       </c>
       <c r="I66">
         <f>DW4-I35</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J66">
         <f>EQ4-J35</f>
@@ -14965,7 +16341,7 @@
       </c>
       <c r="U66">
         <f>DX4-U35</f>
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="V66">
         <f>ER4-V35</f>
@@ -15058,7 +16434,7 @@
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I91" si="39">DW5-I36</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J91" si="40">EQ5-J36</f>
@@ -15102,7 +16478,7 @@
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U91" si="50">DX5-U36</f>
-        <v>0</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="V67">
         <f t="shared" ref="V67:V91" si="51">ER5-V36</f>
@@ -15239,7 +16615,7 @@
       </c>
       <c r="U68">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>-17.5</v>
       </c>
       <c r="V68">
         <f t="shared" si="51"/>
@@ -15332,7 +16708,7 @@
       </c>
       <c r="I69">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J69">
         <f t="shared" si="40"/>
@@ -15376,7 +16752,7 @@
       </c>
       <c r="U69">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="V69">
         <f t="shared" si="51"/>
@@ -15469,7 +16845,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J70">
         <f t="shared" si="40"/>
@@ -15513,7 +16889,7 @@
       </c>
       <c r="U70">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>5.2999999999999989</v>
       </c>
       <c r="V70">
         <f t="shared" si="51"/>
@@ -15557,7 +16933,7 @@
       </c>
       <c r="AG70">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AH70">
         <f t="shared" si="62"/>
@@ -15606,7 +16982,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J71">
         <f t="shared" si="40"/>
@@ -15650,7 +17026,7 @@
       </c>
       <c r="U71">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="V71">
         <f t="shared" si="51"/>
@@ -15694,7 +17070,7 @@
       </c>
       <c r="AG71">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH71">
         <f t="shared" si="62"/>
@@ -15743,7 +17119,7 @@
       </c>
       <c r="I72">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J72">
         <f t="shared" si="40"/>
@@ -15787,7 +17163,7 @@
       </c>
       <c r="U72">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="V72">
         <f t="shared" si="51"/>
@@ -15831,7 +17207,7 @@
       </c>
       <c r="AG72">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AH72">
         <f t="shared" si="62"/>
@@ -15880,7 +17256,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="J73">
         <f t="shared" si="40"/>
@@ -15924,7 +17300,7 @@
       </c>
       <c r="U73">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>18.300000000000004</v>
       </c>
       <c r="V73">
         <f t="shared" si="51"/>
@@ -15968,7 +17344,7 @@
       </c>
       <c r="AG73">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH73">
         <f t="shared" si="62"/>
@@ -16017,7 +17393,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>42.9</v>
       </c>
       <c r="J74">
         <f t="shared" si="40"/>
@@ -16061,7 +17437,7 @@
       </c>
       <c r="U74">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V74">
         <f t="shared" si="51"/>
@@ -16105,7 +17481,7 @@
       </c>
       <c r="AG74">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="AH74">
         <f t="shared" si="62"/>
@@ -16154,7 +17530,7 @@
       </c>
       <c r="I75">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>64.199999999999989</v>
       </c>
       <c r="J75">
         <f t="shared" si="40"/>
@@ -16198,7 +17574,7 @@
       </c>
       <c r="U75">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>59.2</v>
       </c>
       <c r="V75">
         <f t="shared" si="51"/>
@@ -16242,7 +17618,7 @@
       </c>
       <c r="AG75">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AH75">
         <f t="shared" si="62"/>
@@ -16291,7 +17667,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>104.4</v>
       </c>
       <c r="J76">
         <f t="shared" si="40"/>
@@ -16335,7 +17711,7 @@
       </c>
       <c r="U76">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>79.300000000000011</v>
       </c>
       <c r="V76">
         <f t="shared" si="51"/>
@@ -16379,7 +17755,7 @@
       </c>
       <c r="AG76">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="AH76">
         <f t="shared" si="62"/>
@@ -16428,7 +17804,7 @@
       </c>
       <c r="I77">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>147.20000000000002</v>
       </c>
       <c r="J77">
         <f t="shared" si="40"/>
@@ -16472,7 +17848,7 @@
       </c>
       <c r="U77">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>128.29999999999998</v>
       </c>
       <c r="V77">
         <f t="shared" si="51"/>
@@ -16516,7 +17892,7 @@
       </c>
       <c r="AG77">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>123.4</v>
       </c>
       <c r="AH77">
         <f t="shared" si="62"/>
@@ -16565,7 +17941,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>170.8</v>
       </c>
       <c r="J78">
         <f t="shared" si="40"/>
@@ -16609,7 +17985,7 @@
       </c>
       <c r="U78">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="V78">
         <f t="shared" si="51"/>
@@ -16653,7 +18029,7 @@
       </c>
       <c r="AG78">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>159.89999999999998</v>
       </c>
       <c r="AH78">
         <f t="shared" si="62"/>
@@ -16702,7 +18078,7 @@
       </c>
       <c r="I79">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>170.70000000000002</v>
       </c>
       <c r="J79">
         <f t="shared" si="40"/>
@@ -16746,7 +18122,7 @@
       </c>
       <c r="U79">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>160.4</v>
       </c>
       <c r="V79">
         <f t="shared" si="51"/>
@@ -16790,7 +18166,7 @@
       </c>
       <c r="AG79">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>165.4</v>
       </c>
       <c r="AH79">
         <f t="shared" si="62"/>
@@ -16839,7 +18215,7 @@
       </c>
       <c r="I80">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>175.70000000000002</v>
       </c>
       <c r="J80">
         <f t="shared" si="40"/>
@@ -16883,7 +18259,7 @@
       </c>
       <c r="U80">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>171.79999999999998</v>
       </c>
       <c r="V80">
         <f t="shared" si="51"/>
@@ -16927,7 +18303,7 @@
       </c>
       <c r="AG80">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>174.3</v>
       </c>
       <c r="AH80">
         <f t="shared" si="62"/>
@@ -16976,7 +18352,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>187.1</v>
       </c>
       <c r="J81">
         <f t="shared" si="40"/>
@@ -17020,7 +18396,7 @@
       </c>
       <c r="U81">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="V81">
         <f t="shared" si="51"/>
@@ -17064,7 +18440,7 @@
       </c>
       <c r="AG81">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>188.4</v>
       </c>
       <c r="AH81">
         <f t="shared" si="62"/>
@@ -17113,7 +18489,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>186.9</v>
       </c>
       <c r="J82">
         <f t="shared" si="40"/>
@@ -17157,7 +18533,7 @@
       </c>
       <c r="U82">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>173.1</v>
       </c>
       <c r="V82">
         <f t="shared" si="51"/>
@@ -17201,7 +18577,7 @@
       </c>
       <c r="AG82">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>185.3</v>
       </c>
       <c r="AH82">
         <f t="shared" si="62"/>
@@ -17250,7 +18626,7 @@
       </c>
       <c r="I83">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>172.7</v>
       </c>
       <c r="J83">
         <f t="shared" si="40"/>
@@ -17294,7 +18670,7 @@
       </c>
       <c r="U83">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="V83">
         <f t="shared" si="51"/>
@@ -17338,7 +18714,7 @@
       </c>
       <c r="AG83">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>173.20000000000002</v>
       </c>
       <c r="AH83">
         <f t="shared" si="62"/>
@@ -17387,7 +18763,7 @@
       </c>
       <c r="I84">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>175.2</v>
       </c>
       <c r="J84">
         <f t="shared" si="40"/>
@@ -17431,7 +18807,7 @@
       </c>
       <c r="U84">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>179.5</v>
       </c>
       <c r="V84">
         <f t="shared" si="51"/>
@@ -17475,7 +18851,7 @@
       </c>
       <c r="AG84">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>181.5</v>
       </c>
       <c r="AH84">
         <f t="shared" si="62"/>
@@ -17524,7 +18900,7 @@
       </c>
       <c r="I85">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>171.5</v>
       </c>
       <c r="J85">
         <f t="shared" si="40"/>
@@ -17568,7 +18944,7 @@
       </c>
       <c r="U85">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>174.2</v>
       </c>
       <c r="V85">
         <f t="shared" si="51"/>
@@ -17612,7 +18988,7 @@
       </c>
       <c r="AG85">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>182.3</v>
       </c>
       <c r="AH85">
         <f t="shared" si="62"/>
@@ -17661,7 +19037,7 @@
       </c>
       <c r="I86">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>176.99999999999997</v>
       </c>
       <c r="J86">
         <f t="shared" si="40"/>
@@ -17705,7 +19081,7 @@
       </c>
       <c r="U86">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="V86">
         <f t="shared" si="51"/>
@@ -17749,7 +19125,7 @@
       </c>
       <c r="AG86">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>189.70000000000002</v>
       </c>
       <c r="AH86">
         <f t="shared" si="62"/>
@@ -17798,7 +19174,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>179.10000000000002</v>
       </c>
       <c r="J87">
         <f t="shared" si="40"/>
@@ -17842,7 +19218,7 @@
       </c>
       <c r="U87">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>173.9</v>
       </c>
       <c r="V87">
         <f t="shared" si="51"/>
@@ -17886,7 +19262,7 @@
       </c>
       <c r="AG87">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>188.8</v>
       </c>
       <c r="AH87">
         <f t="shared" si="62"/>
@@ -17935,7 +19311,7 @@
       </c>
       <c r="I88">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>167.9</v>
       </c>
       <c r="J88">
         <f t="shared" si="40"/>
@@ -17979,7 +19355,7 @@
       </c>
       <c r="U88">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>167.5</v>
       </c>
       <c r="V88">
         <f t="shared" si="51"/>
@@ -18023,7 +19399,7 @@
       </c>
       <c r="AG88">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>178.70000000000002</v>
       </c>
       <c r="AH88">
         <f t="shared" si="62"/>
@@ -18072,7 +19448,7 @@
       </c>
       <c r="I89">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>162.4</v>
       </c>
       <c r="J89">
         <f t="shared" si="40"/>
@@ -18116,7 +19492,7 @@
       </c>
       <c r="U89">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>181.5</v>
       </c>
       <c r="V89">
         <f t="shared" si="51"/>
@@ -18160,7 +19536,7 @@
       </c>
       <c r="AG89">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>181.20000000000002</v>
       </c>
       <c r="AH89">
         <f t="shared" si="62"/>
@@ -18209,7 +19585,7 @@
       </c>
       <c r="I90">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <f t="shared" si="40"/>
@@ -18253,7 +19629,7 @@
       </c>
       <c r="U90">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="V90">
         <f t="shared" si="51"/>
@@ -18297,7 +19673,7 @@
       </c>
       <c r="AG90">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>175.8</v>
       </c>
       <c r="AH90">
         <f t="shared" si="62"/>
@@ -18346,7 +19722,7 @@
       </c>
       <c r="I91">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>172.7</v>
       </c>
       <c r="J91">
         <f t="shared" si="40"/>
@@ -18390,7 +19766,7 @@
       </c>
       <c r="U91">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>182.09999999999997</v>
       </c>
       <c r="V91">
         <f t="shared" si="51"/>
@@ -18434,7 +19810,7 @@
       </c>
       <c r="AG91">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>171.5</v>
       </c>
       <c r="AH91">
         <f t="shared" si="62"/>
@@ -18648,7 +20024,7 @@
       </c>
       <c r="U97">
         <f>EB4-U35</f>
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="V97">
         <f>EV4-V35</f>
@@ -18741,7 +20117,7 @@
       </c>
       <c r="I98">
         <f t="shared" ref="I98:I122" si="72">EA5-I36</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J98">
         <f t="shared" ref="J98:J122" si="73">EU5-J36</f>
@@ -18785,7 +20161,7 @@
       </c>
       <c r="U98">
         <f t="shared" ref="U98:U122" si="83">EB5-U36</f>
-        <v>0</v>
+        <v>-1.8000000000000007</v>
       </c>
       <c r="V98">
         <f t="shared" ref="V98:V122" si="84">EV5-V36</f>
@@ -18922,7 +20298,7 @@
       </c>
       <c r="U99">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>-11.3</v>
       </c>
       <c r="V99">
         <f t="shared" si="84"/>
@@ -18966,7 +20342,7 @@
       </c>
       <c r="AG99">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="AH99">
         <f t="shared" si="95"/>
@@ -19015,7 +20391,7 @@
       </c>
       <c r="I100">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="J100">
         <f t="shared" si="73"/>
@@ -19059,7 +20435,7 @@
       </c>
       <c r="U100">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>0.40000000000000036</v>
       </c>
       <c r="V100">
         <f t="shared" si="84"/>
@@ -19152,7 +20528,7 @@
       </c>
       <c r="I101">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J101">
         <f t="shared" si="73"/>
@@ -19196,7 +20572,7 @@
       </c>
       <c r="U101">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="V101">
         <f t="shared" si="84"/>
@@ -19240,7 +20616,7 @@
       </c>
       <c r="AG101">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AH101">
         <f t="shared" si="95"/>
@@ -19289,7 +20665,7 @@
       </c>
       <c r="I102">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="J102">
         <f t="shared" si="73"/>
@@ -19333,7 +20709,7 @@
       </c>
       <c r="U102">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>9.4000000000000021</v>
       </c>
       <c r="V102">
         <f t="shared" si="84"/>
@@ -19377,7 +20753,7 @@
       </c>
       <c r="AG102">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="AH102">
         <f t="shared" si="95"/>
@@ -19426,7 +20802,7 @@
       </c>
       <c r="I103">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J103">
         <f t="shared" si="73"/>
@@ -19470,7 +20846,7 @@
       </c>
       <c r="U103">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V103">
         <f t="shared" si="84"/>
@@ -19514,7 +20890,7 @@
       </c>
       <c r="AG103">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AH103">
         <f t="shared" si="95"/>
@@ -19563,7 +20939,7 @@
       </c>
       <c r="I104">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="J104">
         <f t="shared" si="73"/>
@@ -19607,7 +20983,7 @@
       </c>
       <c r="U104">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V104">
         <f t="shared" si="84"/>
@@ -19651,7 +21027,7 @@
       </c>
       <c r="AG104">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="AH104">
         <f t="shared" si="95"/>
@@ -19700,7 +21076,7 @@
       </c>
       <c r="I105">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>41.8</v>
       </c>
       <c r="J105">
         <f t="shared" si="73"/>
@@ -19744,7 +21120,7 @@
       </c>
       <c r="U105">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="V105">
         <f t="shared" si="84"/>
@@ -19788,7 +21164,7 @@
       </c>
       <c r="AG105">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="AH105">
         <f t="shared" si="95"/>
@@ -19837,7 +21213,7 @@
       </c>
       <c r="I106">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>65.399999999999991</v>
       </c>
       <c r="J106">
         <f t="shared" si="73"/>
@@ -19881,7 +21257,7 @@
       </c>
       <c r="U106">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>60.8</v>
       </c>
       <c r="V106">
         <f t="shared" si="84"/>
@@ -19925,7 +21301,7 @@
       </c>
       <c r="AG106">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>53.8</v>
       </c>
       <c r="AH106">
         <f t="shared" si="95"/>
@@ -19974,7 +21350,7 @@
       </c>
       <c r="I107">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>104.60000000000001</v>
       </c>
       <c r="J107">
         <f t="shared" si="73"/>
@@ -20018,7 +21394,7 @@
       </c>
       <c r="U107">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>85.9</v>
       </c>
       <c r="V107">
         <f t="shared" si="84"/>
@@ -20062,7 +21438,7 @@
       </c>
       <c r="AG107">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>83.4</v>
       </c>
       <c r="AH107">
         <f t="shared" si="95"/>
@@ -20111,7 +21487,7 @@
       </c>
       <c r="I108">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>139.6</v>
       </c>
       <c r="J108">
         <f t="shared" si="73"/>
@@ -20155,7 +21531,7 @@
       </c>
       <c r="U108">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>124.4</v>
       </c>
       <c r="V108">
         <f t="shared" si="84"/>
@@ -20199,7 +21575,7 @@
       </c>
       <c r="AG108">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>121.5</v>
       </c>
       <c r="AH108">
         <f t="shared" si="95"/>
@@ -20248,7 +21624,7 @@
       </c>
       <c r="I109">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>158.9</v>
       </c>
       <c r="J109">
         <f t="shared" si="73"/>
@@ -20292,7 +21668,7 @@
       </c>
       <c r="U109">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="V109">
         <f t="shared" si="84"/>
@@ -20336,7 +21712,7 @@
       </c>
       <c r="AG109">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="AH109">
         <f t="shared" si="95"/>
@@ -20385,7 +21761,7 @@
       </c>
       <c r="I110">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>165.8</v>
       </c>
       <c r="J110">
         <f t="shared" si="73"/>
@@ -20429,7 +21805,7 @@
       </c>
       <c r="U110">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>161.70000000000002</v>
       </c>
       <c r="V110">
         <f t="shared" si="84"/>
@@ -20473,7 +21849,7 @@
       </c>
       <c r="AG110">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="AH110">
         <f t="shared" si="95"/>
@@ -20522,7 +21898,7 @@
       </c>
       <c r="I111">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>171.20000000000002</v>
       </c>
       <c r="J111">
         <f t="shared" si="73"/>
@@ -20566,7 +21942,7 @@
       </c>
       <c r="U111">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>177.39999999999998</v>
       </c>
       <c r="V111">
         <f t="shared" si="84"/>
@@ -20610,7 +21986,7 @@
       </c>
       <c r="AG111">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>169.8</v>
       </c>
       <c r="AH111">
         <f t="shared" si="95"/>
@@ -20659,7 +22035,7 @@
       </c>
       <c r="I112">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>166.9</v>
       </c>
       <c r="J112">
         <f t="shared" si="73"/>
@@ -20703,7 +22079,7 @@
       </c>
       <c r="U112">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>165.4</v>
       </c>
       <c r="V112">
         <f t="shared" si="84"/>
@@ -20747,7 +22123,7 @@
       </c>
       <c r="AG112">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>166.70000000000002</v>
       </c>
       <c r="AH112">
         <f t="shared" si="95"/>
@@ -20796,7 +22172,7 @@
       </c>
       <c r="I113">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>170.20000000000002</v>
       </c>
       <c r="J113">
         <f t="shared" si="73"/>
@@ -20840,7 +22216,7 @@
       </c>
       <c r="U113">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>158.1</v>
       </c>
       <c r="V113">
         <f t="shared" si="84"/>
@@ -20884,7 +22260,7 @@
       </c>
       <c r="AG113">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>167.4</v>
       </c>
       <c r="AH113">
         <f t="shared" si="95"/>
@@ -20933,7 +22309,7 @@
       </c>
       <c r="I114">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>177.79999999999998</v>
       </c>
       <c r="J114">
         <f t="shared" si="73"/>
@@ -20977,7 +22353,7 @@
       </c>
       <c r="U114">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>173.7</v>
       </c>
       <c r="V114">
         <f t="shared" si="84"/>
@@ -21021,7 +22397,7 @@
       </c>
       <c r="AG114">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>175.6</v>
       </c>
       <c r="AH114">
         <f t="shared" si="95"/>
@@ -21070,7 +22446,7 @@
       </c>
       <c r="I115">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>180.3</v>
       </c>
       <c r="J115">
         <f t="shared" si="73"/>
@@ -21114,7 +22490,7 @@
       </c>
       <c r="U115">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>172.2</v>
       </c>
       <c r="V115">
         <f t="shared" si="84"/>
@@ -21158,7 +22534,7 @@
       </c>
       <c r="AG115">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>181.4</v>
       </c>
       <c r="AH115">
         <f t="shared" si="95"/>
@@ -21207,7 +22583,7 @@
       </c>
       <c r="I116">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>173.7</v>
       </c>
       <c r="J116">
         <f t="shared" si="73"/>
@@ -21251,7 +22627,7 @@
       </c>
       <c r="U116">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>170.7</v>
       </c>
       <c r="V116">
         <f t="shared" si="84"/>
@@ -21295,7 +22671,7 @@
       </c>
       <c r="AG116">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>180.4</v>
       </c>
       <c r="AH116">
         <f t="shared" si="95"/>
@@ -21344,7 +22720,7 @@
       </c>
       <c r="I117">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>175.5</v>
       </c>
       <c r="J117">
         <f t="shared" si="73"/>
@@ -21388,7 +22764,7 @@
       </c>
       <c r="U117">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>178.8</v>
       </c>
       <c r="V117">
         <f t="shared" si="84"/>
@@ -21432,7 +22808,7 @@
       </c>
       <c r="AG117">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>177.1</v>
       </c>
       <c r="AH117">
         <f t="shared" si="95"/>
@@ -21481,7 +22857,7 @@
       </c>
       <c r="I118">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>179.8</v>
       </c>
       <c r="J118">
         <f t="shared" si="73"/>
@@ -21525,7 +22901,7 @@
       </c>
       <c r="U118">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>175.49999999999997</v>
       </c>
       <c r="V118">
         <f t="shared" si="84"/>
@@ -21569,7 +22945,7 @@
       </c>
       <c r="AG118">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>186.9</v>
       </c>
       <c r="AH118">
         <f t="shared" si="95"/>
@@ -21618,7 +22994,7 @@
       </c>
       <c r="I119">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>175.00000000000003</v>
       </c>
       <c r="J119">
         <f t="shared" si="73"/>
@@ -21662,7 +23038,7 @@
       </c>
       <c r="U119">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>170.10000000000002</v>
       </c>
       <c r="V119">
         <f t="shared" si="84"/>
@@ -21706,7 +23082,7 @@
       </c>
       <c r="AG119">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="AH119">
         <f t="shared" si="95"/>
@@ -21755,7 +23131,7 @@
       </c>
       <c r="I120">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>170.29999999999998</v>
       </c>
       <c r="J120">
         <f t="shared" si="73"/>
@@ -21799,7 +23175,7 @@
       </c>
       <c r="U120">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>165.59999999999997</v>
       </c>
       <c r="V120">
         <f t="shared" si="84"/>
@@ -21843,7 +23219,7 @@
       </c>
       <c r="AG120">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>171.4</v>
       </c>
       <c r="AH120">
         <f t="shared" si="95"/>
@@ -21892,7 +23268,7 @@
       </c>
       <c r="I121">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>178.90000000000003</v>
       </c>
       <c r="J121">
         <f t="shared" si="73"/>
@@ -21936,7 +23312,7 @@
       </c>
       <c r="U121">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="V121">
         <f t="shared" si="84"/>
@@ -21980,7 +23356,7 @@
       </c>
       <c r="AG121">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>165.60000000000002</v>
       </c>
       <c r="AH121">
         <f t="shared" si="95"/>
@@ -22029,7 +23405,7 @@
       </c>
       <c r="I122">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>215.3</v>
       </c>
       <c r="J122">
         <f t="shared" si="73"/>
@@ -22073,7 +23449,7 @@
       </c>
       <c r="U122">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>223.40000000000003</v>
       </c>
       <c r="V122">
         <f t="shared" si="84"/>
@@ -22117,7 +23493,7 @@
       </c>
       <c r="AG122">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>202.7</v>
       </c>
       <c r="AH122">
         <f t="shared" si="95"/>
@@ -22330,7 +23706,7 @@
       </c>
       <c r="U127">
         <f>EF4-U35</f>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="V127">
         <f>EZ4-V35</f>
@@ -22468,7 +23844,7 @@
       </c>
       <c r="U128">
         <f t="shared" ref="U128:U152" si="116">EF5-U36</f>
-        <v>0</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="V128">
         <f t="shared" ref="V128:V152" si="117">EZ5-V36</f>
@@ -22562,7 +23938,7 @@
       </c>
       <c r="I129">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J129">
         <f t="shared" si="106"/>
@@ -22606,7 +23982,7 @@
       </c>
       <c r="U129">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>-25.2</v>
       </c>
       <c r="V129">
         <f t="shared" si="117"/>
@@ -22700,7 +24076,7 @@
       </c>
       <c r="I130">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J130">
         <f t="shared" si="106"/>
@@ -22744,7 +24120,7 @@
       </c>
       <c r="U130">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="V130">
         <f t="shared" si="117"/>
@@ -22838,7 +24214,7 @@
       </c>
       <c r="I131">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J131">
         <f t="shared" si="106"/>
@@ -22882,7 +24258,7 @@
       </c>
       <c r="U131">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>-3.3000000000000003</v>
       </c>
       <c r="V131">
         <f t="shared" si="117"/>
@@ -22926,7 +24302,7 @@
       </c>
       <c r="AG131">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AH131">
         <f t="shared" si="128"/>
@@ -22976,7 +24352,7 @@
       </c>
       <c r="I132">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J132">
         <f t="shared" si="106"/>
@@ -23020,7 +24396,7 @@
       </c>
       <c r="U132">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>2.8999999999999995</v>
       </c>
       <c r="V132">
         <f t="shared" si="117"/>
@@ -23064,7 +24440,7 @@
       </c>
       <c r="AG132">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AH132">
         <f t="shared" si="128"/>
@@ -23114,7 +24490,7 @@
       </c>
       <c r="I133">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J133">
         <f t="shared" si="106"/>
@@ -23158,7 +24534,7 @@
       </c>
       <c r="U133">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>14.099999999999998</v>
       </c>
       <c r="V133">
         <f t="shared" si="117"/>
@@ -23202,7 +24578,7 @@
       </c>
       <c r="AG133">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="AH133">
         <f t="shared" si="128"/>
@@ -23252,7 +24628,7 @@
       </c>
       <c r="I134">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="J134">
         <f t="shared" si="106"/>
@@ -23296,7 +24672,7 @@
       </c>
       <c r="U134">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>12.800000000000004</v>
       </c>
       <c r="V134">
         <f t="shared" si="117"/>
@@ -23340,7 +24716,7 @@
       </c>
       <c r="AG134">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>24.700000000000003</v>
       </c>
       <c r="AH134">
         <f t="shared" si="128"/>
@@ -23390,7 +24766,7 @@
       </c>
       <c r="I135">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>48.3</v>
       </c>
       <c r="J135">
         <f t="shared" si="106"/>
@@ -23434,7 +24810,7 @@
       </c>
       <c r="U135">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="V135">
         <f t="shared" si="117"/>
@@ -23478,7 +24854,7 @@
       </c>
       <c r="AG135">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AH135">
         <f t="shared" si="128"/>
@@ -23528,7 +24904,7 @@
       </c>
       <c r="I136">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>63.1</v>
       </c>
       <c r="J136">
         <f t="shared" si="106"/>
@@ -23572,7 +24948,7 @@
       </c>
       <c r="U136">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>61.099999999999994</v>
       </c>
       <c r="V136">
         <f t="shared" si="117"/>
@@ -23616,7 +24992,7 @@
       </c>
       <c r="AG136">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="AH136">
         <f t="shared" si="128"/>
@@ -23666,7 +25042,7 @@
       </c>
       <c r="I137">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>111.60000000000001</v>
       </c>
       <c r="J137">
         <f t="shared" si="106"/>
@@ -23710,7 +25086,7 @@
       </c>
       <c r="U137">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>88.300000000000011</v>
       </c>
       <c r="V137">
         <f t="shared" si="117"/>
@@ -23754,7 +25130,7 @@
       </c>
       <c r="AG137">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="AH137">
         <f t="shared" si="128"/>
@@ -23804,7 +25180,7 @@
       </c>
       <c r="I138">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>145.30000000000001</v>
       </c>
       <c r="J138">
         <f t="shared" si="106"/>
@@ -23848,7 +25224,7 @@
       </c>
       <c r="U138">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>129.4</v>
       </c>
       <c r="V138">
         <f t="shared" si="117"/>
@@ -23892,7 +25268,7 @@
       </c>
       <c r="AG138">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>131.1</v>
       </c>
       <c r="AH138">
         <f t="shared" si="128"/>
@@ -23942,7 +25318,7 @@
       </c>
       <c r="I139">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>163.6</v>
       </c>
       <c r="J139">
         <f t="shared" si="106"/>
@@ -23986,7 +25362,7 @@
       </c>
       <c r="U139">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="V139">
         <f t="shared" si="117"/>
@@ -24030,7 +25406,7 @@
       </c>
       <c r="AG139">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>158.29999999999998</v>
       </c>
       <c r="AH139">
         <f t="shared" si="128"/>
@@ -24080,7 +25456,7 @@
       </c>
       <c r="I140">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>174.10000000000002</v>
       </c>
       <c r="J140">
         <f t="shared" si="106"/>
@@ -24124,7 +25500,7 @@
       </c>
       <c r="U140">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>160.1</v>
       </c>
       <c r="V140">
         <f t="shared" si="117"/>
@@ -24168,7 +25544,7 @@
       </c>
       <c r="AG140">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>171.1</v>
       </c>
       <c r="AH140">
         <f t="shared" si="128"/>
@@ -24218,7 +25594,7 @@
       </c>
       <c r="I141">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>171.70000000000002</v>
       </c>
       <c r="J141">
         <f t="shared" si="106"/>
@@ -24262,7 +25638,7 @@
       </c>
       <c r="U141">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>161.6</v>
       </c>
       <c r="V141">
         <f t="shared" si="117"/>
@@ -24306,7 +25682,7 @@
       </c>
       <c r="AG141">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>170.20000000000002</v>
       </c>
       <c r="AH141">
         <f t="shared" si="128"/>
@@ -24356,7 +25732,7 @@
       </c>
       <c r="I142">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>173.7</v>
       </c>
       <c r="J142">
         <f t="shared" si="106"/>
@@ -24400,7 +25776,7 @@
       </c>
       <c r="U142">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>157.79999999999998</v>
       </c>
       <c r="V142">
         <f t="shared" si="117"/>
@@ -24444,7 +25820,7 @@
       </c>
       <c r="AG142">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>174.10000000000002</v>
       </c>
       <c r="AH142">
         <f t="shared" si="128"/>
@@ -24494,7 +25870,7 @@
       </c>
       <c r="I143">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>177.60000000000002</v>
       </c>
       <c r="J143">
         <f t="shared" si="106"/>
@@ -24538,7 +25914,7 @@
       </c>
       <c r="U143">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>156.6</v>
       </c>
       <c r="V143">
         <f t="shared" si="117"/>
@@ -24582,7 +25958,7 @@
       </c>
       <c r="AG143">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>174.8</v>
       </c>
       <c r="AH143">
         <f t="shared" si="128"/>
@@ -24632,7 +26008,7 @@
       </c>
       <c r="I144">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>181.5</v>
       </c>
       <c r="J144">
         <f t="shared" si="106"/>
@@ -24676,7 +26052,7 @@
       </c>
       <c r="U144">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="V144">
         <f t="shared" si="117"/>
@@ -24720,7 +26096,7 @@
       </c>
       <c r="AG144">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>181.1</v>
       </c>
       <c r="AH144">
         <f t="shared" si="128"/>
@@ -24770,7 +26146,7 @@
       </c>
       <c r="I145">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>176.3</v>
       </c>
       <c r="J145">
         <f t="shared" si="106"/>
@@ -24814,7 +26190,7 @@
       </c>
       <c r="U145">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>161.9</v>
       </c>
       <c r="V145">
         <f t="shared" si="117"/>
@@ -24858,7 +26234,7 @@
       </c>
       <c r="AG145">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>175.9</v>
       </c>
       <c r="AH145">
         <f t="shared" si="128"/>
@@ -24908,7 +26284,7 @@
       </c>
       <c r="I146">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>181.8</v>
       </c>
       <c r="J146">
         <f t="shared" si="106"/>
@@ -24952,7 +26328,7 @@
       </c>
       <c r="U146">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>168.8</v>
       </c>
       <c r="V146">
         <f t="shared" si="117"/>
@@ -24996,7 +26372,7 @@
       </c>
       <c r="AG146">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>184.1</v>
       </c>
       <c r="AH146">
         <f t="shared" si="128"/>
@@ -25046,7 +26422,7 @@
       </c>
       <c r="I147">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>202.6</v>
       </c>
       <c r="J147">
         <f t="shared" si="106"/>
@@ -25090,7 +26466,7 @@
       </c>
       <c r="U147">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>179.7</v>
       </c>
       <c r="V147">
         <f t="shared" si="117"/>
@@ -25134,7 +26510,7 @@
       </c>
       <c r="AG147">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>194.3</v>
       </c>
       <c r="AH147">
         <f t="shared" si="128"/>
@@ -25184,7 +26560,7 @@
       </c>
       <c r="I148">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>215.7</v>
       </c>
       <c r="J148">
         <f t="shared" si="106"/>
@@ -25228,7 +26604,7 @@
       </c>
       <c r="U148">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>185.1</v>
       </c>
       <c r="V148">
         <f t="shared" si="117"/>
@@ -25272,7 +26648,7 @@
       </c>
       <c r="AG148">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>199.8</v>
       </c>
       <c r="AH148">
         <f t="shared" si="128"/>
@@ -25322,7 +26698,7 @@
       </c>
       <c r="I149">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="J149">
         <f t="shared" si="106"/>
@@ -25366,7 +26742,7 @@
       </c>
       <c r="U149">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>189.90000000000003</v>
       </c>
       <c r="V149">
         <f t="shared" si="117"/>
@@ -25410,7 +26786,7 @@
       </c>
       <c r="AG149">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>205.79999999999998</v>
       </c>
       <c r="AH149">
         <f t="shared" si="128"/>
@@ -25460,7 +26836,7 @@
       </c>
       <c r="I150">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>214.6</v>
       </c>
       <c r="J150">
         <f t="shared" si="106"/>
@@ -25504,7 +26880,7 @@
       </c>
       <c r="U150">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>192.8</v>
       </c>
       <c r="V150">
         <f t="shared" si="117"/>
@@ -25548,7 +26924,7 @@
       </c>
       <c r="AG150">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>199.99999999999997</v>
       </c>
       <c r="AH150">
         <f t="shared" si="128"/>
@@ -25598,7 +26974,7 @@
       </c>
       <c r="I151">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>320.00000000000006</v>
       </c>
       <c r="J151">
         <f t="shared" si="106"/>
@@ -25642,7 +27018,7 @@
       </c>
       <c r="U151">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>225.5</v>
       </c>
       <c r="V151">
         <f t="shared" si="117"/>
@@ -25686,7 +27062,7 @@
       </c>
       <c r="AG151">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="AH151">
         <f t="shared" si="128"/>
@@ -25736,7 +27112,7 @@
       </c>
       <c r="I152">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>269.90000000000003</v>
       </c>
       <c r="J152">
         <f t="shared" si="106"/>
@@ -25780,7 +27156,7 @@
       </c>
       <c r="U152">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>252.8</v>
       </c>
       <c r="V152">
         <f t="shared" si="117"/>
@@ -25824,7 +27200,7 @@
       </c>
       <c r="AG152">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="AH152">
         <f t="shared" si="128"/>
@@ -26036,7 +27412,7 @@
       </c>
       <c r="U157">
         <f>EJ4-U35</f>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="V157">
         <f>FD4-V35</f>
@@ -26129,7 +27505,7 @@
       </c>
       <c r="I158">
         <f t="shared" ref="I158:I182" si="138">EI5-I36</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J158">
         <f t="shared" ref="J158:J182" si="139">FC5-J36</f>
@@ -26173,7 +27549,7 @@
       </c>
       <c r="U158">
         <f t="shared" ref="U158:U182" si="149">EJ5-U36</f>
-        <v>0</v>
+        <v>-15.9</v>
       </c>
       <c r="V158">
         <f t="shared" ref="V158:V182" si="150">FD5-V36</f>
@@ -26266,7 +27642,7 @@
       </c>
       <c r="I159">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="J159">
         <f t="shared" si="139"/>
@@ -26310,7 +27686,7 @@
       </c>
       <c r="U159">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>-25.1</v>
       </c>
       <c r="V159">
         <f t="shared" si="150"/>
@@ -26403,7 +27779,7 @@
       </c>
       <c r="I160">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J160">
         <f t="shared" si="139"/>
@@ -26447,7 +27823,7 @@
       </c>
       <c r="U160">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="V160">
         <f t="shared" si="150"/>
@@ -26491,7 +27867,7 @@
       </c>
       <c r="AG160">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AH160">
         <f t="shared" si="161"/>
@@ -26540,7 +27916,7 @@
       </c>
       <c r="I161">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J161">
         <f t="shared" si="139"/>
@@ -26584,7 +27960,7 @@
       </c>
       <c r="U161">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>-2.3000000000000003</v>
       </c>
       <c r="V161">
         <f t="shared" si="150"/>
@@ -26628,7 +28004,7 @@
       </c>
       <c r="AG161">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH161">
         <f t="shared" si="161"/>
@@ -26677,7 +28053,7 @@
       </c>
       <c r="I162">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="J162">
         <f t="shared" si="139"/>
@@ -26721,7 +28097,7 @@
       </c>
       <c r="U162">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>-0.60000000000000053</v>
       </c>
       <c r="V162">
         <f t="shared" si="150"/>
@@ -26765,7 +28141,7 @@
       </c>
       <c r="AG162">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="AH162">
         <f t="shared" si="161"/>
@@ -26814,7 +28190,7 @@
       </c>
       <c r="I163">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="J163">
         <f t="shared" si="139"/>
@@ -26858,7 +28234,7 @@
       </c>
       <c r="U163">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>2.3999999999999986</v>
       </c>
       <c r="V163">
         <f t="shared" si="150"/>
@@ -26902,7 +28278,7 @@
       </c>
       <c r="AG163">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AH163">
         <f t="shared" si="161"/>
@@ -26951,7 +28327,7 @@
       </c>
       <c r="I164">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="J164">
         <f t="shared" si="139"/>
@@ -26995,7 +28371,7 @@
       </c>
       <c r="U164">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>3.2000000000000028</v>
       </c>
       <c r="V164">
         <f t="shared" si="150"/>
@@ -27039,7 +28415,7 @@
       </c>
       <c r="AG164">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="AH164">
         <f t="shared" si="161"/>
@@ -27088,7 +28464,7 @@
       </c>
       <c r="I165">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>37.699999999999996</v>
       </c>
       <c r="J165">
         <f t="shared" si="139"/>
@@ -27132,7 +28508,7 @@
       </c>
       <c r="U165">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>22.300000000000004</v>
       </c>
       <c r="V165">
         <f t="shared" si="150"/>
@@ -27176,7 +28552,7 @@
       </c>
       <c r="AG165">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="AH165">
         <f t="shared" si="161"/>
@@ -27225,7 +28601,7 @@
       </c>
       <c r="I166">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>61.199999999999996</v>
       </c>
       <c r="J166">
         <f t="shared" si="139"/>
@@ -27269,7 +28645,7 @@
       </c>
       <c r="U166">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="V166">
         <f t="shared" si="150"/>
@@ -27313,7 +28689,7 @@
       </c>
       <c r="AG166">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AH166">
         <f t="shared" si="161"/>
@@ -27362,7 +28738,7 @@
       </c>
       <c r="I167">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>112.4</v>
       </c>
       <c r="J167">
         <f t="shared" si="139"/>
@@ -27406,7 +28782,7 @@
       </c>
       <c r="U167">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="V167">
         <f t="shared" si="150"/>
@@ -27450,7 +28826,7 @@
       </c>
       <c r="AG167">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="AH167">
         <f t="shared" si="161"/>
@@ -27499,7 +28875,7 @@
       </c>
       <c r="I168">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="J168">
         <f t="shared" si="139"/>
@@ -27543,7 +28919,7 @@
       </c>
       <c r="U168">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>107.6</v>
       </c>
       <c r="V168">
         <f t="shared" si="150"/>
@@ -27587,7 +28963,7 @@
       </c>
       <c r="AG168">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="AH168">
         <f t="shared" si="161"/>
@@ -27636,7 +29012,7 @@
       </c>
       <c r="I169">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="J169">
         <f t="shared" si="139"/>
@@ -27680,7 +29056,7 @@
       </c>
       <c r="U169">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>137.5</v>
       </c>
       <c r="V169">
         <f t="shared" si="150"/>
@@ -27724,7 +29100,7 @@
       </c>
       <c r="AG169">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="AH169">
         <f t="shared" si="161"/>
@@ -27773,7 +29149,7 @@
       </c>
       <c r="I170">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>167.5</v>
       </c>
       <c r="J170">
         <f t="shared" si="139"/>
@@ -27817,7 +29193,7 @@
       </c>
       <c r="U170">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>143.6</v>
       </c>
       <c r="V170">
         <f t="shared" si="150"/>
@@ -27861,7 +29237,7 @@
       </c>
       <c r="AG170">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>155.1</v>
       </c>
       <c r="AH170">
         <f t="shared" si="161"/>
@@ -27910,7 +29286,7 @@
       </c>
       <c r="I171">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>168.3</v>
       </c>
       <c r="J171">
         <f t="shared" si="139"/>
@@ -27954,7 +29330,7 @@
       </c>
       <c r="U171">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>153.6</v>
       </c>
       <c r="V171">
         <f t="shared" si="150"/>
@@ -27998,7 +29374,7 @@
       </c>
       <c r="AG171">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="AH171">
         <f t="shared" si="161"/>
@@ -28047,7 +29423,7 @@
       </c>
       <c r="I172">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>168.1</v>
       </c>
       <c r="J172">
         <f t="shared" si="139"/>
@@ -28091,7 +29467,7 @@
       </c>
       <c r="U172">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>146.9</v>
       </c>
       <c r="V172">
         <f t="shared" si="150"/>
@@ -28135,7 +29511,7 @@
       </c>
       <c r="AG172">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="AH172">
         <f t="shared" si="161"/>
@@ -28184,7 +29560,7 @@
       </c>
       <c r="I173">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>177.20000000000002</v>
       </c>
       <c r="J173">
         <f t="shared" si="139"/>
@@ -28228,7 +29604,7 @@
       </c>
       <c r="U173">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="V173">
         <f t="shared" si="150"/>
@@ -28272,7 +29648,7 @@
       </c>
       <c r="AG173">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>167.3</v>
       </c>
       <c r="AH173">
         <f t="shared" si="161"/>
@@ -28321,7 +29697,7 @@
       </c>
       <c r="I174">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>172.1</v>
       </c>
       <c r="J174">
         <f t="shared" si="139"/>
@@ -28365,7 +29741,7 @@
       </c>
       <c r="U174">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="V174">
         <f t="shared" si="150"/>
@@ -28409,7 +29785,7 @@
       </c>
       <c r="AG174">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>167.70000000000002</v>
       </c>
       <c r="AH174">
         <f t="shared" si="161"/>
@@ -28458,7 +29834,7 @@
       </c>
       <c r="I175">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J175">
         <f t="shared" si="139"/>
@@ -28502,7 +29878,7 @@
       </c>
       <c r="U175">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="V175">
         <f t="shared" si="150"/>
@@ -28546,7 +29922,7 @@
       </c>
       <c r="AG175">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>175.9</v>
       </c>
       <c r="AH175">
         <f t="shared" si="161"/>
@@ -28595,7 +29971,7 @@
       </c>
       <c r="I176">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>175.1</v>
       </c>
       <c r="J176">
         <f t="shared" si="139"/>
@@ -28639,7 +30015,7 @@
       </c>
       <c r="U176">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="V176">
         <f t="shared" si="150"/>
@@ -28683,7 +30059,7 @@
       </c>
       <c r="AG176">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>173.20000000000002</v>
       </c>
       <c r="AH176">
         <f t="shared" si="161"/>
@@ -28732,7 +30108,7 @@
       </c>
       <c r="I177">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>246.1</v>
       </c>
       <c r="J177">
         <f t="shared" si="139"/>
@@ -28776,7 +30152,7 @@
       </c>
       <c r="U177">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>188.5</v>
       </c>
       <c r="V177">
         <f t="shared" si="150"/>
@@ -28820,7 +30196,7 @@
       </c>
       <c r="AG177">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>202.5</v>
       </c>
       <c r="AH177">
         <f t="shared" si="161"/>
@@ -28869,7 +30245,7 @@
       </c>
       <c r="I178">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>255.5</v>
       </c>
       <c r="J178">
         <f t="shared" si="139"/>
@@ -28913,7 +30289,7 @@
       </c>
       <c r="U178">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>202.4</v>
       </c>
       <c r="V178">
         <f t="shared" si="150"/>
@@ -28957,7 +30333,7 @@
       </c>
       <c r="AG178">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>217.2</v>
       </c>
       <c r="AH178">
         <f t="shared" si="161"/>
@@ -29006,7 +30382,7 @@
       </c>
       <c r="I179">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>238.6</v>
       </c>
       <c r="J179">
         <f t="shared" si="139"/>
@@ -29050,7 +30426,7 @@
       </c>
       <c r="U179">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>195.5</v>
       </c>
       <c r="V179">
         <f t="shared" si="150"/>
@@ -29094,7 +30470,7 @@
       </c>
       <c r="AG179">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>213.20000000000002</v>
       </c>
       <c r="AH179">
         <f t="shared" si="161"/>
@@ -29143,7 +30519,7 @@
       </c>
       <c r="I180">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="J180">
         <f t="shared" si="139"/>
@@ -29187,7 +30563,7 @@
       </c>
       <c r="U180">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>207.3</v>
       </c>
       <c r="V180">
         <f t="shared" si="150"/>
@@ -29231,7 +30607,7 @@
       </c>
       <c r="AG180">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>215.99999999999997</v>
       </c>
       <c r="AH180">
         <f t="shared" si="161"/>
@@ -29280,7 +30656,7 @@
       </c>
       <c r="I181">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>258.90000000000003</v>
       </c>
       <c r="J181">
         <f t="shared" si="139"/>
@@ -29324,7 +30700,7 @@
       </c>
       <c r="U181">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>184.2</v>
       </c>
       <c r="V181">
         <f t="shared" si="150"/>
@@ -29368,7 +30744,7 @@
       </c>
       <c r="AG181">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>223.89999999999998</v>
       </c>
       <c r="AH181">
         <f t="shared" si="161"/>
@@ -29417,7 +30793,7 @@
       </c>
       <c r="I182">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>259.8</v>
       </c>
       <c r="J182">
         <f t="shared" si="139"/>
@@ -29461,7 +30837,7 @@
       </c>
       <c r="U182">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>237.09999999999997</v>
       </c>
       <c r="V182">
         <f t="shared" si="150"/>
@@ -29505,7 +30881,7 @@
       </c>
       <c r="AG182">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="AH182">
         <f t="shared" si="161"/>
